--- a/2020_timetable_andan.xlsx
+++ b/2020_timetable_andan.xlsx
@@ -22,19 +22,28 @@
     <t>start</t>
   </si>
   <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>second_name</t>
+  </si>
+  <si>
     <t>end</t>
   </si>
   <si>
     <t>content</t>
   </si>
   <si>
+    <t>last_name</t>
+  </si>
+  <si>
     <t>group</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>first_name</t>
+    <t>present</t>
   </si>
   <si>
     <t>who</t>
@@ -43,15 +52,6 @@
     <t>import</t>
   </si>
   <si>
-    <t>second_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
     <t>to_schedule</t>
   </si>
   <si>
@@ -73,46 +73,46 @@
     <t>участник</t>
   </si>
   <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>Будников</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Серветник</t>
+  </si>
+  <si>
+    <t>орг</t>
+  </si>
+  <si>
+    <t>Волохонский</t>
+  </si>
+  <si>
+    <t>препод</t>
+  </si>
+  <si>
+    <t>Стася</t>
+  </si>
+  <si>
+    <t>Миллер</t>
+  </si>
+  <si>
     <t>01-02-2020, 0:00</t>
   </si>
   <si>
-    <t>Антон</t>
-  </si>
-  <si>
     <t>финализация списка преподавателей</t>
   </si>
   <si>
-    <t>Будников</t>
-  </si>
-  <si>
     <t>✓</t>
   </si>
   <si>
-    <t>Мария</t>
-  </si>
-  <si>
-    <t>Серветник</t>
-  </si>
-  <si>
-    <t>орг</t>
-  </si>
-  <si>
     <t>advanced</t>
   </si>
   <si>
-    <t>Волохонский</t>
-  </si>
-  <si>
-    <t>препод</t>
-  </si>
-  <si>
     <t>medium</t>
-  </si>
-  <si>
-    <t>Стася</t>
-  </si>
-  <si>
-    <t>Миллер</t>
   </si>
   <si>
     <t>03-02-2020, 0:00</t>
@@ -280,16 +280,16 @@
       <name val="Cambria"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
     </font>
     <font/>
     <font>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -330,23 +330,20 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
@@ -354,10 +351,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -589,7 +589,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.14"/>
-    <col customWidth="1" min="2" max="3" width="10.71"/>
+    <col customWidth="1" min="2" max="3" width="16.29"/>
     <col customWidth="1" min="4" max="4" width="33.86"/>
     <col customWidth="1" min="5" max="5" width="9.14"/>
     <col customWidth="1" min="6" max="6" width="6.14"/>
@@ -605,88 +605,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -696,35 +696,35 @@
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -735,15 +735,15 @@
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -760,13 +760,13 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -783,13 +783,13 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -806,13 +806,13 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -835,7 +835,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="10">
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -848,7 +848,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -861,21 +861,21 @@
       <c r="A13" s="15">
         <v>12.0</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="14" t="b">
         <v>1</v>
       </c>
@@ -884,21 +884,21 @@
       <c r="A14" s="15">
         <v>13.0</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="14" t="b">
         <v>1</v>
       </c>
@@ -907,21 +907,21 @@
       <c r="A15" s="15">
         <v>14.0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="14" t="b">
         <v>1</v>
       </c>
@@ -930,21 +930,21 @@
       <c r="A16" s="15">
         <v>15.0</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="14" t="b">
         <v>1</v>
       </c>
@@ -953,21 +953,21 @@
       <c r="A17" s="15">
         <v>16.0</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="14" t="b">
         <v>1</v>
       </c>
@@ -976,21 +976,21 @@
       <c r="A18" s="15">
         <v>17.0</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="E18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="14" t="b">
         <v>1</v>
       </c>
@@ -999,21 +999,21 @@
       <c r="A19" s="15">
         <v>18.0</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="E19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="14" t="b">
         <v>1</v>
       </c>
@@ -1022,21 +1022,21 @@
       <c r="A20" s="15">
         <v>19.0</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="E20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="14" t="b">
         <v>1</v>
       </c>
@@ -1045,21 +1045,21 @@
       <c r="A21" s="15">
         <v>20.0</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="E21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="14" t="b">
         <v>1</v>
       </c>
@@ -1068,21 +1068,21 @@
       <c r="A22" s="15">
         <v>21.0</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="E22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="14" t="b">
         <v>1</v>
       </c>
@@ -1091,21 +1091,21 @@
       <c r="A23" s="15">
         <v>22.0</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="14" t="b">
         <v>1</v>
       </c>
@@ -1114,21 +1114,21 @@
       <c r="A24" s="15">
         <v>23.0</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="14" t="b">
         <v>1</v>
       </c>
@@ -1137,21 +1137,21 @@
       <c r="A25" s="15">
         <v>24.0</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="E25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="14" t="b">
         <v>1</v>
       </c>
@@ -1160,21 +1160,21 @@
       <c r="A26" s="15">
         <v>25.0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="E26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="14" t="b">
         <v>1</v>
       </c>
@@ -1183,21 +1183,21 @@
       <c r="A27" s="15">
         <v>26.0</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="E27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="14" t="b">
         <v>1</v>
       </c>
@@ -1206,21 +1206,21 @@
       <c r="A28" s="15">
         <v>27.0</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="E28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="14" t="b">
         <v>1</v>
       </c>
@@ -1229,21 +1229,21 @@
       <c r="A29" s="15">
         <v>28.0</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="E29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="14" t="b">
         <v>1</v>
       </c>
@@ -1252,21 +1252,21 @@
       <c r="A30" s="15">
         <v>29.0</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="E30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="14" t="b">
         <v>1</v>
       </c>
@@ -1275,21 +1275,21 @@
       <c r="A31" s="15">
         <v>30.0</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="E31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="14" t="b">
         <v>1</v>
       </c>
@@ -1298,21 +1298,21 @@
       <c r="A32" s="15">
         <v>31.0</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="E32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="14" t="b">
         <v>1</v>
       </c>
@@ -1321,21 +1321,21 @@
       <c r="A33" s="15">
         <v>32.0</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="E33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="14" t="b">
         <v>1</v>
       </c>
@@ -1344,21 +1344,21 @@
       <c r="A34" s="15">
         <v>33.0</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="E34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="14" t="b">
         <v>1</v>
       </c>
@@ -1367,21 +1367,21 @@
       <c r="A35" s="15">
         <v>34.0</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="E35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="14" t="b">
         <v>1</v>
       </c>
@@ -1390,104 +1390,104 @@
       <c r="A36" s="15">
         <v>38.0</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="6" t="s">
+      <c r="E36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37">
       <c r="A37" s="14">
         <v>39.0</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="6" t="s">
+      <c r="E37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="9"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38">
       <c r="A38" s="14">
         <v>40.0</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="6" t="s">
+      <c r="E38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39">
       <c r="A39" s="14">
         <v>41.0</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40">
       <c r="A40" s="14">
         <v>42.0</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1518,25 +1518,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
@@ -1568,19 +1568,19 @@
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -1594,22 +1594,22 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
@@ -1620,8 +1620,8 @@
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1632,10 +1632,10 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
@@ -1646,22 +1646,22 @@
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>0</v>
@@ -1672,10 +1672,10 @@
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>44046.0</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>44053.0</v>
       </c>
     </row>
@@ -1708,30 +1708,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1758,19 +1758,19 @@
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -1784,22 +1784,22 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
@@ -1810,8 +1810,8 @@
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1822,10 +1822,10 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
@@ -1836,22 +1836,22 @@
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>0</v>
@@ -1862,10 +1862,10 @@
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="13">
         <v>44046.0</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="13">
         <v>44053.0</v>
       </c>
     </row>
@@ -1898,30 +1898,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1948,19 +1948,19 @@
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -1974,22 +1974,22 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
@@ -2000,8 +2000,8 @@
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -2012,10 +2012,10 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
@@ -2026,22 +2026,22 @@
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>0</v>
@@ -2052,10 +2052,10 @@
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="13">
         <v>44046.0</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="13">
         <v>44053.0</v>
       </c>
     </row>
